--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calin_000\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="7410" xr2:uid="{8DCE5E16-2509-4EB8-B819-B94291685F85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>The Place</t>
   </si>
@@ -161,22 +156,82 @@
     <t>Sales Orders-&gt;Receipt Payments</t>
   </si>
   <si>
-    <t>New version filters TODO</t>
-  </si>
-  <si>
     <t>/_cpanel/orderpayment</t>
   </si>
   <si>
     <t>Sales Orders-&gt;View Payments</t>
   </si>
   <si>
-    <t>Payments</t>
+    <t>View Payments</t>
+  </si>
+  <si>
+    <t>item=payrec&amp;page=view&amp;id=84254353579</t>
+  </si>
+  <si>
+    <t>/_cpanel/orderpayment/view</t>
+  </si>
+  <si>
+    <t>View Payment {payment-id}</t>
+  </si>
+  <si>
+    <t>Sales Orders-&gt;View Payments-&gt;Click on the payment ID {payment-id}</t>
+  </si>
+  <si>
+    <t>Vouchers &amp; Rewards</t>
+  </si>
+  <si>
+    <t>/_cpanel/vouchers</t>
+  </si>
+  <si>
+    <t>Sales Orders-&gt;Vouchers &amp; Rewards</t>
+  </si>
+  <si>
+    <t>/_cpanel/vouchers/view</t>
+  </si>
+  <si>
+    <t>Voucher {voucher-id}</t>
+  </si>
+  <si>
+    <t>Sales Orders-&gt;Vouchers &amp; Rewards-&gt;Click on the voucher ID {voucher-id}</t>
+  </si>
+  <si>
+    <t>Resolution Centre</t>
+  </si>
+  <si>
+    <t>/_cpanel/resolcentre</t>
+  </si>
+  <si>
+    <t>Sales Orders-&gt;Disputes</t>
+  </si>
+  <si>
+    <t>/_cpanel/resolcentre/view</t>
+  </si>
+  <si>
+    <t>View Item Dispute {dispute-id}</t>
+  </si>
+  <si>
+    <t>Sales Orders-&gt;Disputes-&gt;Click on the dispute ID {dispute-id}</t>
+  </si>
+  <si>
+    <t>Returns &amp; Credits</t>
+  </si>
+  <si>
+    <t>/_cpanel/rma</t>
+  </si>
+  <si>
+    <t>Sales Orders-&gt;Returns &amp; Credits</t>
+  </si>
+  <si>
+    <t>View / Edit RMA {rma-id}</t>
+  </si>
+  <si>
+    <t>/_cpanel/rma/editrma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -320,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -514,18 +569,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287709B3-3BDE-4018-86B4-C2F973C64527}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,18 +765,95 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>47</v>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
